--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/17/word_level_predictions_17.xlsx
@@ -2374,366 +2374,366 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="D38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2790,468 +2790,468 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7089,11 +7089,11 @@
         </is>
       </c>
       <c r="I128" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K128" s="2" t="b">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7141,11 +7141,11 @@
         </is>
       </c>
       <c r="I129" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7193,11 +7193,11 @@
         </is>
       </c>
       <c r="I130" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G131" s="2" t="b">
@@ -7245,11 +7245,11 @@
         </is>
       </c>
       <c r="I131" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K131" s="2" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7297,11 +7297,11 @@
         </is>
       </c>
       <c r="I132" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K132" s="2" t="b">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7349,11 +7349,11 @@
         </is>
       </c>
       <c r="I133" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="F187" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G187" s="2" t="b">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="L187" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="F189" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G189" s="2" t="b">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="L189" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G190" s="2" t="b">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/17/word_level_predictions_17.xlsx
@@ -2374,366 +2374,366 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
         <v>3</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" t="n">
         <v>2</v>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" t="n">
         <v>3</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
         <v>3</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" t="n">
         <v>4</v>
       </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>5</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>6</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2790,468 +2790,468 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>8</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" t="n">
         <v>3</v>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" t="n">
         <v>9</v>
       </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>10</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" t="n">
         <v>11</v>
       </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>12</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>13</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>14</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>3</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>15</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>3</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>16</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7089,11 +7089,11 @@
         </is>
       </c>
       <c r="I128" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K128" s="2" t="b">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7141,11 +7141,11 @@
         </is>
       </c>
       <c r="I129" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7193,11 +7193,11 @@
         </is>
       </c>
       <c r="I130" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G131" s="2" t="b">
@@ -7245,11 +7245,11 @@
         </is>
       </c>
       <c r="I131" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K131" s="2" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7297,11 +7297,11 @@
         </is>
       </c>
       <c r="I132" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K132" s="2" t="b">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7349,11 +7349,11 @@
         </is>
       </c>
       <c r="I133" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="F187" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G187" s="2" t="b">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="L187" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="F189" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G189" s="2" t="b">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="L189" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G190" s="2" t="b">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
